--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1496286.12013304</v>
+        <v>-1499006.017908256</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>156.9889410214438</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>404.3150780457921</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>23.65927425173504</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>28.61461439955627</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>169.3274933806856</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6103441630977</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>323.3565167682464</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>11.8012633255872</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>121.9295443326855</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>383.4616123063595</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
@@ -1184,22 +1184,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.9935557741434</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -1339,25 +1339,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>179.4729214858816</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>86.24688089189645</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>160.9722800722545</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>125.2700607443039</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892451</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>73.56194264363164</v>
+        <v>13.94435783112388</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.7193406055823</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>167.1115298725988</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652629</v>
+        <v>56.98118882652567</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065884</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.239490800229</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1652.520361908888</v>
+        <v>621.3604480128756</v>
       </c>
       <c r="C2" t="n">
-        <v>1283.557844968476</v>
+        <v>462.7857601124273</v>
       </c>
       <c r="D2" t="n">
-        <v>1283.557844968476</v>
+        <v>462.7857601124273</v>
       </c>
       <c r="E2" t="n">
-        <v>1283.557844968476</v>
+        <v>462.7857601124273</v>
       </c>
       <c r="F2" t="n">
-        <v>875.1587762353527</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272273</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870222</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520161</v>
+        <v>559.5640350498051</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719102</v>
+        <v>1200.587244669699</v>
       </c>
       <c r="M2" t="n">
-        <v>1332.174964921833</v>
+        <v>1496.657811227302</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.198174541727</v>
+        <v>1802.132917462887</v>
       </c>
       <c r="O2" t="n">
-        <v>2248.31439385836</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.618721147462</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4358,22 +4358,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>2336.351904522573</v>
+        <v>2124.334033584003</v>
       </c>
       <c r="V2" t="n">
-        <v>2005.289017179002</v>
+        <v>2124.334033584003</v>
       </c>
       <c r="W2" t="n">
-        <v>1652.520361908888</v>
+        <v>1771.565378313889</v>
       </c>
       <c r="X2" t="n">
-        <v>1652.520361908888</v>
+        <v>1398.099620052809</v>
       </c>
       <c r="Y2" t="n">
-        <v>1652.520361908888</v>
+        <v>1007.960288076997</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.890208309364</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.437179028237</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669858</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615303</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884153</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995008</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202281</v>
+        <v>460.3590590626825</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234822</v>
+        <v>669.9499323155136</v>
       </c>
       <c r="M3" t="n">
-        <v>1039.200821018968</v>
+        <v>1310.973141935408</v>
       </c>
       <c r="N3" t="n">
-        <v>1324.5346914523</v>
+        <v>1596.307012368741</v>
       </c>
       <c r="O3" t="n">
-        <v>1953.263339287719</v>
+        <v>2225.035660204162</v>
       </c>
       <c r="P3" t="n">
-        <v>2440.870441194966</v>
+        <v>2397.364621157872</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028121</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1533.717344299919</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1325.865844094386</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1647.439588612989</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C4" t="n">
-        <v>1478.503405685082</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>1478.503405685082</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>1330.590312102689</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>1330.590312102689</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>1330.590312102689</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>1330.590312102689</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>1330.590312102689</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>1332.824984110053</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>1466.334073395855</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>1692.706176713999</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>1941.772943046538</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>2190.352074789138</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>2403.938841137293</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>2563.178535773336</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>2472.33270548243</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>2448.434448662496</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="T4" t="n">
-        <v>2419.530797753853</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="U4" t="n">
-        <v>2419.530797753853</v>
+        <v>477.5222156304092</v>
       </c>
       <c r="V4" t="n">
-        <v>2164.846309547966</v>
+        <v>222.8377274245223</v>
       </c>
       <c r="W4" t="n">
-        <v>1875.429139511006</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="X4" t="n">
-        <v>1647.439588612989</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="Y4" t="n">
-        <v>1647.439588612989</v>
+        <v>51.79985532281972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1129.422051487368</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="C5" t="n">
-        <v>1129.422051487368</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="D5" t="n">
-        <v>771.1563528806173</v>
+        <v>1329.746324659711</v>
       </c>
       <c r="E5" t="n">
-        <v>385.3681002823731</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F5" t="n">
-        <v>378.4225995331696</v>
+        <v>532.9721672718591</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
         <v>447.8319447135512</v>
@@ -4577,10 +4577,10 @@
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4598,19 +4598,19 @@
         <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V5" t="n">
-        <v>2258.929878797415</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="W5" t="n">
-        <v>1906.161223527301</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="X5" t="n">
-        <v>1906.161223527301</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="Y5" t="n">
-        <v>1516.021891551489</v>
+        <v>1615.21131876385</v>
       </c>
     </row>
     <row r="6">
@@ -4629,16 +4629,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
@@ -4650,16 +4650,16 @@
         <v>426.7768722128337</v>
       </c>
       <c r="L6" t="n">
-        <v>788.8134803644004</v>
+        <v>724.0888213291485</v>
       </c>
       <c r="M6" t="n">
-        <v>1155.119369856726</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1545.528931182469</v>
+        <v>1554.712543231644</v>
       </c>
       <c r="O6" t="n">
-        <v>1880.457611898</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
         <v>2445.212480716556</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.6862392510991</v>
+        <v>367.6891376433235</v>
       </c>
       <c r="C7" t="n">
-        <v>361.7500563231922</v>
+        <v>367.6891376433235</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6334169108565</v>
+        <v>367.6891376433235</v>
       </c>
       <c r="E7" t="n">
-        <v>63.72032332846337</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="F7" t="n">
-        <v>63.72032332846337</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>63.72032332846337</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>63.72032332846337</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1450.534004159847</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1450.534004159847</v>
+        <v>1421.701152019303</v>
       </c>
       <c r="U7" t="n">
-        <v>1450.534004159847</v>
+        <v>1132.583375029701</v>
       </c>
       <c r="V7" t="n">
-        <v>1450.534004159847</v>
+        <v>877.8988868238141</v>
       </c>
       <c r="W7" t="n">
-        <v>1161.116834122886</v>
+        <v>588.4817167868536</v>
       </c>
       <c r="X7" t="n">
-        <v>933.127283224869</v>
+        <v>588.4817167868536</v>
       </c>
       <c r="Y7" t="n">
-        <v>712.3347040813388</v>
+        <v>367.6891376433235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.173470159407</v>
+        <v>1118.265277610684</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.210953218995</v>
+        <v>1118.265277610684</v>
       </c>
       <c r="D8" t="n">
-        <v>1153.945254612245</v>
+        <v>759.9995790039331</v>
       </c>
       <c r="E8" t="n">
-        <v>1153.945254612245</v>
+        <v>374.211326405689</v>
       </c>
       <c r="F8" t="n">
-        <v>742.9593498226373</v>
+        <v>367.2658256564855</v>
       </c>
       <c r="G8" t="n">
         <v>355.6243878970215</v>
@@ -4808,16 +4808,16 @@
         <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.815585560731</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.236357502978</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.173470159407</v>
+        <v>1861.173264856609</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.173470159407</v>
+        <v>1508.404609586495</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.173470159407</v>
+        <v>1508.404609586495</v>
       </c>
       <c r="Y8" t="n">
-        <v>1881.173470159407</v>
+        <v>1118.265277610684</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>301.946747225829</v>
       </c>
       <c r="L9" t="n">
-        <v>788.8134803644004</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M9" t="n">
-        <v>1155.119369856726</v>
+        <v>965.5645858344694</v>
       </c>
       <c r="N9" t="n">
-        <v>1545.528931182469</v>
+        <v>1606.587795454363</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.457611898</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>919.8493750306872</v>
+        <v>494.2583477090404</v>
       </c>
       <c r="C10" t="n">
-        <v>750.9131921027803</v>
+        <v>325.3221647811335</v>
       </c>
       <c r="D10" t="n">
-        <v>600.7965526904445</v>
+        <v>325.3221647811335</v>
       </c>
       <c r="E10" t="n">
-        <v>452.8834591080514</v>
+        <v>325.3221647811335</v>
       </c>
       <c r="F10" t="n">
-        <v>305.993511610141</v>
+        <v>325.3221647811335</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H10" t="n">
         <v>157.3459760430229</v>
@@ -4960,7 +4960,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121973</v>
@@ -4987,25 +4987,25 @@
         <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1363.576528632236</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1140.641954174217</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1140.641954174217</v>
+        <v>1038.360005951888</v>
       </c>
       <c r="V10" t="n">
-        <v>1140.641954174217</v>
+        <v>783.6755177460011</v>
       </c>
       <c r="W10" t="n">
-        <v>1140.641954174217</v>
+        <v>494.2583477090404</v>
       </c>
       <c r="X10" t="n">
-        <v>1140.641954174217</v>
+        <v>494.2583477090404</v>
       </c>
       <c r="Y10" t="n">
-        <v>919.8493750306872</v>
+        <v>494.2583477090404</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647288</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>747.3584617859337</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>597.241822373598</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>449.3287287912049</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>302.4387812932945</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336516</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438499</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949686</v>
+        <v>916.2946447138406</v>
       </c>
     </row>
     <row r="14">
@@ -5270,31 +5270,31 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5355,7 +5355,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5370,13 +5370,13 @@
         <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683104</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832664</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176862</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970975</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035997</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892467</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6069,22 +6069,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>175.874420793908</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>671.2000270096665</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2095.308724111328</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384025</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656818</v>
@@ -6847,13 +6847,13 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,16 +6950,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656818</v>
@@ -7084,16 +7084,16 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7102,16 +7102,16 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7789,13 +7789,13 @@
         <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7979,16 +7979,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>274.6154541391781</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037413</v>
+        <v>407.4751802037392</v>
       </c>
       <c r="M2" t="n">
-        <v>108.4711649417397</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659704</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660669</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.69108553971742</v>
+        <v>128.6363583044576</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>-4.595456432816642e-13</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>65.37844346995149</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>74.65481927719935</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>309.1863928326896</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906577</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,19 +8535,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>191.4694788103603</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>253.1450992870217</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>256.7871481632757</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>208.2839507495637</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>105.7830179064867</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>2.560967695919317</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>176.7882501195665</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>117.1955049559054</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>6.274541026373299</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>40.25407754796498</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>152.1477127454055</v>
+        <v>211.7652975579133</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.11263957635495</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>50.2939204546895</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455268</v>
+        <v>116044.8438455267</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
@@ -26326,7 +26326,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
@@ -26335,25 +26335,25 @@
         <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="M2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="M2" t="n">
-        <v>143682.3097262496</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898953</v>
+        <v>172764.3597898926</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457505</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69645.52123312827</v>
+        <v>69645.52123312783</v>
       </c>
       <c r="C4" t="n">
+        <v>129066.754725248</v>
+      </c>
+      <c r="D4" t="n">
         <v>129066.7547252479</v>
-      </c>
-      <c r="D4" t="n">
-        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695065</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695099</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695077</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695056</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="L4" t="n">
+        <v>14278.33979478848</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14278.33979478846</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14278.33979478855</v>
+      </c>
+      <c r="O4" t="n">
         <v>14278.33979478852</v>
       </c>
-      <c r="M4" t="n">
-        <v>14278.33979478853</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14278.33979478852</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14278.33979478851</v>
-      </c>
       <c r="P4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478854</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-982628.688159988</v>
+        <v>-983023.5091011438</v>
       </c>
       <c r="C6" t="n">
-        <v>-251629.8941504032</v>
+        <v>-251629.8941504006</v>
       </c>
       <c r="D6" t="n">
-        <v>-78865.53436050798</v>
+        <v>-78865.53436050791</v>
       </c>
       <c r="E6" t="n">
-        <v>-467048.2231556016</v>
+        <v>-467082.9610810374</v>
       </c>
       <c r="F6" t="n">
-        <v>33840.64459014894</v>
+        <v>33805.9066647132</v>
       </c>
       <c r="G6" t="n">
-        <v>33840.64459014894</v>
+        <v>33805.90666471327</v>
       </c>
       <c r="H6" t="n">
-        <v>33840.64459014895</v>
+        <v>33805.90666471324</v>
       </c>
       <c r="I6" t="n">
-        <v>33840.64459014895</v>
+        <v>33805.90666471327</v>
       </c>
       <c r="J6" t="n">
-        <v>-135573.3722358992</v>
+        <v>-135608.1101613347</v>
       </c>
       <c r="K6" t="n">
-        <v>6812.136083913996</v>
+        <v>6812.136083913967</v>
       </c>
       <c r="L6" t="n">
-        <v>26239.85407754571</v>
+        <v>26239.85407754577</v>
       </c>
       <c r="M6" t="n">
         <v>-104644.6028266895</v>
       </c>
       <c r="N6" t="n">
-        <v>26239.85407754575</v>
+        <v>26239.85407754569</v>
       </c>
       <c r="O6" t="n">
-        <v>26239.85407754572</v>
+        <v>26239.85407754571</v>
       </c>
       <c r="P6" t="n">
-        <v>6812.136083913865</v>
+        <v>6812.136083913909</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498448</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152237</v>
+        <v>189.725434152234</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918289</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>248.9000237141962</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>193.5524332327601</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>100.1234975003829</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>88.16850661362298</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>92.68939618741392</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>98.77568438075292</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>28.0634110755098</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>186.7587026959915</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>15.01224784820946</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>199.9797183278092</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28302,13 +28302,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,10 +31276,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
@@ -31297,16 +31297,16 @@
         <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583803</v>
@@ -31379,7 +31379,7 @@
         <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31394,7 +31394,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315819</v>
@@ -31440,7 +31440,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
@@ -31449,7 +31449,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979552</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>240.4469701760394</v>
       </c>
       <c r="M18" t="n">
-        <v>302.9675447508041</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>491.1355220041054</v>
+        <v>732.4825987614918</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,34 +32789,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>220.728062960153</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M27" t="n">
-        <v>270.9486956727256</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>506.5665344352332</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375116</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000254</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>438.0447592553351</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
-        <v>407.5323432827507</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352465</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223249</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586401</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932359</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.6286110565863</v>
+        <v>194.5738838213273</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
         <v>360.385208115341</v>
@@ -34945,19 +34945,19 @@
         <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873414</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>365.6935435874412</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
         <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>469.007911525424</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P6" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
         <v>118.0296862297623</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597958</v>
@@ -35106,7 +35106,7 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P7" t="n">
         <v>202.2269825633448</v>
@@ -35255,19 +35255,19 @@
         <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>491.78457892785</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
         <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>595.0989468658325</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530876</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
         <v>118.0296862297623</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>101.8925903961653</v>
       </c>
       <c r="M18" t="n">
-        <v>160.8335108287857</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>349.0014880820871</v>
+        <v>590.3485648394735</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>82.88662398579405</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,13 +36601,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37005,10 +37005,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>364.4325005132149</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
